--- a/Tennis/WTA Tour/Madison Keys.xlsx
+++ b/Tennis/WTA Tour/Madison Keys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12180" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA878281-DF58-4B1A-BD3C-A835E8BE6310}"/>
+  <xr:revisionPtr revIDLastSave="12273" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F5833AD-A9C7-4203-BB51-1960A853BCF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="15" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="658">
   <si>
     <t>ROUND</t>
   </si>
@@ -1987,6 +1987,45 @@
   </si>
   <si>
     <t>Maya Joint (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>2-6 6-2 7-6(3)</t>
+  </si>
+  <si>
+    <t>0-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>7-5 7-6(3)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (FRANCE)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 7-5</t>
+  </si>
+  <si>
+    <t>Katie Boulter (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-4 6-1</t>
+  </si>
+  <si>
+    <t>7-5 7-6(6)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Anastasia Zakharova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>QUEENS CLUB CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>6-7(4) 7-5 7-5</t>
+  </si>
+  <si>
+    <t>Olga Danilović (SERBIA)</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2114,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2084,6 +2123,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2319,7 +2359,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,7 +2509,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,7 +3073,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,10 +4554,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -8108,8 +8144,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8881,8 +8917,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" activeCellId="9" sqref="E2 E5:E6 E11:E14 E17:E19 E22:E25 E27:E28 E31 E35:E37 E42:E43 E46:E47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9522,18 +9558,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E54" activeCellId="9" sqref="E4 E24 E27 E30 E35 E38 E44 E48 E50 E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9928,6 +9964,296 @@
       </c>
       <c r="F30" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>406</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>648</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>643</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>486</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>650</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>548</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>558</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>595</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>654</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>634</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>480</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>631</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>322</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>657</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>498</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -9944,7 +10270,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,20 +10644,20 @@
         <v>2025</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10340,7 +10666,7 @@
       </c>
       <c r="B19" s="2">
         <f>SUM(B2:B18)</f>
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C19" s="2">
         <f>SUM(C2:C18)</f>
@@ -10348,15 +10674,15 @@
       </c>
       <c r="D19" s="2">
         <f>SUM(D2:D18)</f>
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E19" s="2">
         <f>SUM(E2:E18)</f>
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F19" s="3">
         <f>(D19-E19)/D19</f>
-        <v>0.43846153846153846</v>
+        <v>0.44029850746268656</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10365,7 +10691,7 @@
       </c>
       <c r="B20" s="2">
         <f>AVERAGE(B2:B18)</f>
-        <v>14</v>
+        <v>14.352941176470589</v>
       </c>
       <c r="C20" s="2">
         <f>AVERAGE(C2:C18)</f>
@@ -10373,15 +10699,15 @@
       </c>
       <c r="D20" s="2">
         <f>AVERAGE(D2:D18)</f>
-        <v>22.941176470588236</v>
+        <v>23.647058823529413</v>
       </c>
       <c r="E20" s="2">
         <f>AVERAGE(E2:E18)</f>
-        <v>12.882352941176471</v>
+        <v>13.235294117647058</v>
       </c>
       <c r="F20" s="3">
         <f>(D20-E20)/D20</f>
-        <v>0.43846153846153846</v>
+        <v>0.44029850746268662</v>
       </c>
     </row>
   </sheetData>
@@ -12883,7 +13209,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Madison Keys.xlsx
+++ b/Tennis/WTA Tour/Madison Keys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12273" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F5833AD-A9C7-4203-BB51-1960A853BCF9}"/>
+  <xr:revisionPtr revIDLastSave="12321" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AD2F23-3565-40B9-81B1-D3779B34047A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="17085" yWindow="14610" windowWidth="17280" windowHeight="6960" firstSheet="5" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="15" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="664">
   <si>
     <t>ROUND</t>
   </si>
@@ -1944,9 +1944,6 @@
     <t>Qinwen Zheng (CHINA)</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
   </si>
   <si>
@@ -2026,6 +2023,27 @@
   </si>
   <si>
     <t>Olga Danilović (SERBIA)</t>
+  </si>
+  <si>
+    <t>6-7(10) 7-6(3) 7-5</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-4 6-2</t>
+  </si>
+  <si>
+    <t>1-6 6-3 7-6(1)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Caty McNally (USA)</t>
+  </si>
+  <si>
+    <t>Eva Lys (GERMANY)</t>
+  </si>
+  <si>
+    <t>Aoi Ito (JAPAN)</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2377,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2527,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3073,7 +3091,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.64864864864864868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8145,7 +8163,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="A49" sqref="A49:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8745,7 +8763,7 @@
         <v>352</v>
       </c>
       <c r="B49" t="s">
-        <v>630</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
@@ -8785,7 +8803,7 @@
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -8827,7 +8845,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -8847,7 +8865,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8996,7 +9014,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -9112,7 +9130,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9140,7 +9158,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -9264,7 +9282,7 @@
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -9278,7 +9296,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -9360,7 +9378,7 @@
         <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -9394,7 +9412,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9408,7 +9426,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9422,13 +9440,13 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9456,7 +9474,7 @@
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -9524,7 +9542,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9558,10 +9576,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E54" activeCellId="9" sqref="E4 E24 E27 E30 E35 E38 E44 E48 E50 E54"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E65" activeCellId="12" sqref="E4 E24 E27 E30 E35 E38 E44 E48 E50 E54 E59 E63 E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9997,7 +10015,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10025,7 +10043,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10039,7 +10057,7 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -10053,13 +10071,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10087,7 +10105,7 @@
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -10107,7 +10125,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10135,12 +10153,12 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
@@ -10149,7 +10167,7 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -10164,13 +10182,13 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10199,13 +10217,13 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -10225,7 +10243,7 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10233,7 +10251,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -10254,6 +10272,141 @@
       </c>
       <c r="F54" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>498</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>661</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>566</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" t="s">
+        <v>662</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>663</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>636</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -10644,20 +10797,20 @@
         <v>2025</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.64864864864864868</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10666,7 +10819,7 @@
       </c>
       <c r="B19" s="2">
         <f>SUM(B2:B18)</f>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C19" s="2">
         <f>SUM(C2:C18)</f>
@@ -10674,15 +10827,15 @@
       </c>
       <c r="D19" s="2">
         <f>SUM(D2:D18)</f>
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E19" s="2">
         <f>SUM(E2:E18)</f>
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F19" s="3">
         <f>(D19-E19)/D19</f>
-        <v>0.44029850746268656</v>
+        <v>0.43980343980343978</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10691,7 +10844,7 @@
       </c>
       <c r="B20" s="2">
         <f>AVERAGE(B2:B18)</f>
-        <v>14.352941176470589</v>
+        <v>14.529411764705882</v>
       </c>
       <c r="C20" s="2">
         <f>AVERAGE(C2:C18)</f>
@@ -10699,15 +10852,15 @@
       </c>
       <c r="D20" s="2">
         <f>AVERAGE(D2:D18)</f>
-        <v>23.647058823529413</v>
+        <v>23.941176470588236</v>
       </c>
       <c r="E20" s="2">
         <f>AVERAGE(E2:E18)</f>
-        <v>13.235294117647058</v>
+        <v>13.411764705882353</v>
       </c>
       <c r="F20" s="3">
         <f>(D20-E20)/D20</f>
-        <v>0.44029850746268662</v>
+        <v>0.43980343980343978</v>
       </c>
     </row>
   </sheetData>
